--- a/data/180_P_label_case.xlsx
+++ b/data/180_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,618 +448,506 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.011843</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007920270198864755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.023687</v>
+        <v>0.011843</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0541099401604743</v>
+        <v>0.007920270198864755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03553</v>
+        <v>0.023687</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1273505335547468</v>
+        <v>0.0541099401604743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.047374</v>
+        <v>0.03553</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1919797352175346</v>
+        <v>0.1273505335547468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.059217</v>
+        <v>0.047374</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2179247732510162</v>
+        <v>0.1919797352175346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.07126</v>
+        <v>0.059217</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219878394894207</v>
+        <v>0.2179247732510162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.083303</v>
+        <v>0.07126</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2034614812527241</v>
+        <v>0.219878394894207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.095346</v>
+        <v>0.083303</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1805149753132994</v>
+        <v>0.2034614812527241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.10739</v>
+        <v>0.095346</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1570977750588763</v>
+        <v>0.1805149753132994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.11943</v>
+        <v>0.10739</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1360699860823273</v>
+        <v>0.1570977750588763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.13167</v>
+        <v>0.11943</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117543720378003</v>
+        <v>0.1360699860823273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1439</v>
+        <v>0.13167</v>
       </c>
       <c r="B13" t="n">
-        <v>0.101980439899076</v>
+        <v>0.117543720378003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.15613</v>
+        <v>0.1439</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08919154132310828</v>
+        <v>0.101980439899076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.16836</v>
+        <v>0.15613</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07866825510110681</v>
+        <v>0.08919154132310828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1806</v>
+        <v>0.16836</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0697151321689032</v>
+        <v>0.07866825510110681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.19301</v>
+        <v>0.1806</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06229572164538796</v>
+        <v>0.0697151321689032</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.20542</v>
+        <v>0.19301</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05608229531723823</v>
+        <v>0.06229572164538796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.21783</v>
+        <v>0.20542</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0509331388322084</v>
+        <v>0.05608229531723823</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.23025</v>
+        <v>0.21783</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04659979348688512</v>
+        <v>0.0509331388322084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24266</v>
+        <v>0.23025</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04284243071529115</v>
+        <v>0.04659979348688512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.25524</v>
+        <v>0.24266</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03955045321650252</v>
+        <v>0.04284243071529115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.26782</v>
+        <v>0.25524</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03670255228944378</v>
+        <v>0.03955045321650252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2804</v>
+        <v>0.26782</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03423437632453608</v>
+        <v>0.03670255228944378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.29298</v>
+        <v>0.2804</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03206770187517696</v>
+        <v>0.03423437632453608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.30556</v>
+        <v>0.29298</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03013092342024505</v>
+        <v>0.03206770187517696</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3183</v>
+        <v>0.30556</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02837866976566381</v>
+        <v>0.03013092342024505</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.33104</v>
+        <v>0.3183</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02681102379085171</v>
+        <v>0.02837866976566381</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.34377</v>
+        <v>0.33104</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02540171375281381</v>
+        <v>0.02681102379085171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.35651</v>
+        <v>0.34377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0241221405575778</v>
+        <v>0.02540171375281381</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.36925</v>
+        <v>0.35651</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02294778591388828</v>
+        <v>0.0241221405575778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.38213</v>
+        <v>0.36925</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02184881019161491</v>
+        <v>0.02294778591388828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.39501</v>
+        <v>0.38213</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02083131086702007</v>
+        <v>0.02184881019161491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.40789</v>
+        <v>0.39501</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01988607688731721</v>
+        <v>0.02083131086702007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.42077</v>
+        <v>0.40789</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01900127828316104</v>
+        <v>0.01988607688731721</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.43365</v>
+        <v>0.42077</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01816597599347708</v>
+        <v>0.01900127828316104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4466600000000001</v>
+        <v>0.43365</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01735611453034558</v>
+        <v>0.01816597599347708</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.45967</v>
+        <v>0.4466600000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0165746835165611</v>
+        <v>0.01735611453034558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.47268</v>
+        <v>0.45967</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01582032234155875</v>
+        <v>0.0165746835165611</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.48569</v>
+        <v>0.47268</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01509079743352646</v>
+        <v>0.01582032234155875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4987</v>
+        <v>0.48569</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01438353870897308</v>
+        <v>0.01509079743352646</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.51183</v>
+        <v>0.4987</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01368783874728593</v>
+        <v>0.01438353870897308</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.52496</v>
+        <v>0.51183</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01300008975424694</v>
+        <v>0.01368783874728593</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.53809</v>
+        <v>0.52496</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01231959562343109</v>
+        <v>0.01300008975424694</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5512100000000001</v>
+        <v>0.53809</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01164579123485829</v>
+        <v>0.01231959562343109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.56434</v>
+        <v>0.5512100000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01098044079001627</v>
+        <v>0.01164579123485829</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.57757</v>
+        <v>0.56434</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01032462707730982</v>
+        <v>0.01098044079001627</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5908</v>
+        <v>0.57757</v>
       </c>
       <c r="B48" t="n">
-        <v>0.009690952501335308</v>
+        <v>0.01032462707730982</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6040300000000001</v>
+        <v>0.5908</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00908395359296154</v>
+        <v>0.009690952501335308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.61726</v>
+        <v>0.6040300000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00850568542223273</v>
+        <v>0.00908395359296154</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.63049</v>
+        <v>0.61726</v>
       </c>
       <c r="B51" t="n">
-        <v>0.007957887309911326</v>
+        <v>0.00850568542223273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6438</v>
+        <v>0.63049</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007427425902215232</v>
+        <v>0.007957887309911326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6571199999999999</v>
+        <v>0.6438</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006917705736645741</v>
+        <v>0.007427425902215232</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6704399999999999</v>
+        <v>0.6571199999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006425734893484416</v>
+        <v>0.006917705736645741</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.68375</v>
+        <v>0.6704399999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005949240767824191</v>
+        <v>0.006425734893484416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.69707</v>
+        <v>0.68375</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00548765828493849</v>
+        <v>0.005949240767824191</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7104600000000001</v>
+        <v>0.69707</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005039635759694479</v>
+        <v>0.00548765828493849</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.72385</v>
+        <v>0.7104600000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004609849108381418</v>
+        <v>0.005039635759694479</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7372300000000001</v>
+        <v>0.72385</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004199077826212207</v>
+        <v>0.004609849108381418</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.75062</v>
+        <v>0.7372300000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003807020023255061</v>
+        <v>0.004199077826212207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7640100000000001</v>
+        <v>0.75062</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003433977506835449</v>
+        <v>0.003807020023255061</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.77746</v>
+        <v>0.7640100000000001</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003075117239802261</v>
+        <v>0.003433977506835449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7909</v>
+        <v>0.77746</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002735081501029562</v>
+        <v>0.003075117239802261</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.80435</v>
+        <v>0.7909</v>
       </c>
       <c r="B64" t="n">
-        <v>0.002413417678815121</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0.81779</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.002109737733066167</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0.8312299999999999</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.001824125696885316</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.84472</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.001554380042882781</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.8582</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.001302299740072238</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.87169</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.001068921405713607</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.8851700000000001</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.0008551331565368653</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.89866</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0006621855393274476</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.91217</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.0004915363260138777</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.9256799999999999</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0003450491165230952</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.93919</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0002238792052138856</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.9527</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0001285644534905678</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.96621</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5.930803224763762e-05</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.97972</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.598175750321395e-05</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.99324</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-1.320761437083464e-06</v>
+        <v>0.002735081501029562</v>
       </c>
     </row>
   </sheetData>
